--- a/src/worksheet.xlsx
+++ b/src/worksheet.xlsx
@@ -455,7 +455,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,7 +600,7 @@
         <v>24</v>
       </c>
       <c r="E8" s="3">
-        <v>123.45687</v>
+        <v>123.456</v>
       </c>
     </row>
   </sheetData>
